--- a/학습자료/단답형/국어_기출의지혜_한자어.xlsx
+++ b/학습자료/단답형/국어_기출의지혜_한자어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,6 +587,226 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>報告</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>보고</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>體系的</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>체계적</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>曲折</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>곡절</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>初有</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>초유</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>序幕</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>서막</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>敎養</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>교양</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>理論</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>이론</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>儒敎</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>유교</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>學問</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>학문</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>受容</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>수용</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
